--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.147722666666667</v>
+        <v>3.901443333333333</v>
       </c>
       <c r="N2">
-        <v>9.443168</v>
+        <v>11.70433</v>
       </c>
       <c r="O2">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="P2">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="Q2">
-        <v>194.6698076663075</v>
+        <v>259.3560690036066</v>
       </c>
       <c r="R2">
-        <v>1752.028268996768</v>
+        <v>2334.20462103246</v>
       </c>
       <c r="S2">
-        <v>0.007298285009110933</v>
+        <v>0.01637818944662127</v>
       </c>
       <c r="T2">
-        <v>0.007298285009110931</v>
+        <v>0.01637818944662127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.241022</v>
       </c>
       <c r="O3">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="P3">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="Q3">
-        <v>149.272824548658</v>
+        <v>160.453695468996</v>
       </c>
       <c r="R3">
-        <v>1343.455420937922</v>
+        <v>1444.083259220964</v>
       </c>
       <c r="S3">
-        <v>0.005596325545965344</v>
+        <v>0.01013256035186572</v>
       </c>
       <c r="T3">
-        <v>0.005596325545965342</v>
+        <v>0.01013256035186571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.645246</v>
+        <v>0.9736509999999999</v>
       </c>
       <c r="N4">
-        <v>13.935738</v>
+        <v>2.920953</v>
       </c>
       <c r="O4">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="P4">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="Q4">
-        <v>287.2836145823154</v>
+        <v>64.72535273905399</v>
       </c>
       <c r="R4">
-        <v>2585.552531240838</v>
+        <v>582.528174651486</v>
       </c>
       <c r="S4">
-        <v>0.01077043082748264</v>
+        <v>0.004087369511853882</v>
       </c>
       <c r="T4">
-        <v>0.01077043082748264</v>
+        <v>0.004087369511853882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9924829999999999</v>
+        <v>2.301273333333333</v>
       </c>
       <c r="N5">
-        <v>2.977449</v>
+        <v>6.90382</v>
       </c>
       <c r="O5">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="P5">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="Q5">
-        <v>61.37976409677766</v>
+        <v>152.9816415214266</v>
       </c>
       <c r="R5">
-        <v>552.417876870999</v>
+        <v>1376.83477369284</v>
       </c>
       <c r="S5">
-        <v>0.00230116327508865</v>
+        <v>0.009660704360298528</v>
       </c>
       <c r="T5">
-        <v>0.00230116327508865</v>
+        <v>0.009660704360298526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.400438333333333</v>
+        <v>0.6815196666666666</v>
       </c>
       <c r="N6">
-        <v>7.201314999999999</v>
+        <v>2.044559</v>
       </c>
       <c r="O6">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="P6">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="Q6">
-        <v>148.4542693717295</v>
+        <v>45.30535153109533</v>
       </c>
       <c r="R6">
-        <v>1336.088424345565</v>
+        <v>407.748163779858</v>
       </c>
       <c r="S6">
-        <v>0.005565637433368303</v>
+        <v>0.002861007391007819</v>
       </c>
       <c r="T6">
-        <v>0.005565637433368302</v>
+        <v>0.002861007391007818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.147722666666667</v>
+        <v>3.901443333333333</v>
       </c>
       <c r="N7">
-        <v>9.443168</v>
+        <v>11.70433</v>
       </c>
       <c r="O7">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="P7">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="Q7">
-        <v>4285.243753416864</v>
+        <v>5311.343292889589</v>
       </c>
       <c r="R7">
-        <v>38567.19378075178</v>
+        <v>47802.08963600631</v>
       </c>
       <c r="S7">
-        <v>0.1606562960166805</v>
+        <v>0.3354083326493403</v>
       </c>
       <c r="T7">
-        <v>0.1606562960166805</v>
+        <v>0.3354083326493403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.241022</v>
       </c>
       <c r="O8">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="P8">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="Q8">
         <v>3285.925262989505</v>
@@ -948,10 +948,10 @@
         <v>29573.32736690555</v>
       </c>
       <c r="S8">
-        <v>0.1231912610148729</v>
+        <v>0.2075043266634819</v>
       </c>
       <c r="T8">
-        <v>0.1231912610148729</v>
+        <v>0.2075043266634819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.645246</v>
+        <v>0.9736509999999999</v>
       </c>
       <c r="N9">
-        <v>13.935738</v>
+        <v>2.920953</v>
       </c>
       <c r="O9">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="P9">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="Q9">
-        <v>6323.940674755973</v>
+        <v>1325.508091910919</v>
       </c>
       <c r="R9">
-        <v>56915.46607280376</v>
+        <v>11929.57282719827</v>
       </c>
       <c r="S9">
-        <v>0.2370882366319124</v>
+        <v>0.08370508824316202</v>
       </c>
       <c r="T9">
-        <v>0.2370882366319124</v>
+        <v>0.08370508824316202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9924829999999999</v>
+        <v>2.301273333333333</v>
       </c>
       <c r="N10">
-        <v>2.977449</v>
+        <v>6.90382</v>
       </c>
       <c r="O10">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="P10">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="Q10">
-        <v>1351.145582538327</v>
+        <v>3132.905348047859</v>
       </c>
       <c r="R10">
-        <v>12160.31024284494</v>
+        <v>28196.14813243074</v>
       </c>
       <c r="S10">
-        <v>0.05065523857232754</v>
+        <v>0.1978412053582878</v>
       </c>
       <c r="T10">
-        <v>0.05065523857232755</v>
+        <v>0.1978412053582878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.400438333333333</v>
+        <v>0.6815196666666666</v>
       </c>
       <c r="N11">
-        <v>7.201314999999999</v>
+        <v>2.044559</v>
       </c>
       <c r="O11">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="P11">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="Q11">
-        <v>3267.906503425244</v>
+        <v>927.8066093118568</v>
       </c>
       <c r="R11">
-        <v>29411.1585308272</v>
+        <v>8350.259483806713</v>
       </c>
       <c r="S11">
-        <v>0.1225157271743297</v>
+        <v>0.0585904639730085</v>
       </c>
       <c r="T11">
-        <v>0.1225157271743298</v>
+        <v>0.05859046397300849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.147722666666667</v>
+        <v>3.901443333333333</v>
       </c>
       <c r="N12">
-        <v>9.443168</v>
+        <v>11.70433</v>
       </c>
       <c r="O12">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="P12">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="Q12">
-        <v>790.1004674601173</v>
+        <v>174.90604303832</v>
       </c>
       <c r="R12">
-        <v>7110.904207141056</v>
+        <v>1574.15438734488</v>
       </c>
       <c r="S12">
-        <v>0.02962132888752902</v>
+        <v>0.01104521794784244</v>
       </c>
       <c r="T12">
-        <v>0.02962132888752902</v>
+        <v>0.01104521794784244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.241022</v>
       </c>
       <c r="O13">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="P13">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="Q13">
-        <v>605.849103509436</v>
+        <v>108.207689425488</v>
       </c>
       <c r="R13">
-        <v>5452.641931584923</v>
+        <v>973.8692048293921</v>
       </c>
       <c r="S13">
-        <v>0.02271363743013289</v>
+        <v>0.006833254543841636</v>
       </c>
       <c r="T13">
-        <v>0.02271363743013289</v>
+        <v>0.006833254543841634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.645246</v>
+        <v>0.9736509999999999</v>
       </c>
       <c r="N14">
-        <v>13.935738</v>
+        <v>2.920953</v>
       </c>
       <c r="O14">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="P14">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="Q14">
-        <v>1165.989327755444</v>
+        <v>43.64985702991199</v>
       </c>
       <c r="R14">
-        <v>10493.903949799</v>
+        <v>392.848713269208</v>
       </c>
       <c r="S14">
-        <v>0.04371362222809506</v>
+        <v>0.002756463847174868</v>
       </c>
       <c r="T14">
-        <v>0.04371362222809505</v>
+        <v>0.002756463847174867</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9924829999999999</v>
+        <v>2.301273333333333</v>
       </c>
       <c r="N15">
-        <v>2.977449</v>
+        <v>6.90382</v>
       </c>
       <c r="O15">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="P15">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="Q15">
-        <v>249.120194275762</v>
+        <v>103.16864254928</v>
       </c>
       <c r="R15">
-        <v>2242.081748481858</v>
+        <v>928.5177829435199</v>
       </c>
       <c r="S15">
-        <v>0.00933966186716623</v>
+        <v>0.006515041576294722</v>
       </c>
       <c r="T15">
-        <v>0.009339661867166227</v>
+        <v>0.00651504157629472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.400438333333333</v>
+        <v>0.6815196666666666</v>
       </c>
       <c r="N16">
-        <v>7.201314999999999</v>
+        <v>2.044559</v>
       </c>
       <c r="O16">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="P16">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="Q16">
-        <v>602.5268583411366</v>
+        <v>30.553284506536</v>
       </c>
       <c r="R16">
-        <v>5422.741725070229</v>
+        <v>274.979560558824</v>
       </c>
       <c r="S16">
-        <v>0.02258908451461375</v>
+        <v>0.001929422680514202</v>
       </c>
       <c r="T16">
-        <v>0.02258908451461374</v>
+        <v>0.001929422680514202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.147722666666667</v>
+        <v>3.901443333333333</v>
       </c>
       <c r="N17">
-        <v>9.443168</v>
+        <v>11.70433</v>
       </c>
       <c r="O17">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="P17">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="Q17">
-        <v>85.23192329533154</v>
+        <v>206.11567409631</v>
       </c>
       <c r="R17">
-        <v>767.0873096579838</v>
+        <v>1855.04106686679</v>
       </c>
       <c r="S17">
-        <v>0.003195394681594847</v>
+        <v>0.01301608854281513</v>
       </c>
       <c r="T17">
-        <v>0.003195394681594847</v>
+        <v>0.01301608854281513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.241022</v>
       </c>
       <c r="O18">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="P18">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="Q18">
-        <v>65.35584580130399</v>
+        <v>127.515896311554</v>
       </c>
       <c r="R18">
-        <v>588.2026122117359</v>
+        <v>1147.643066803986</v>
       </c>
       <c r="S18">
-        <v>0.002450228904972493</v>
+        <v>0.00805255691632689</v>
       </c>
       <c r="T18">
-        <v>0.002450228904972493</v>
+        <v>0.008052556916326888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>4.645246</v>
+        <v>0.9736509999999999</v>
       </c>
       <c r="N19">
-        <v>13.935738</v>
+        <v>2.920953</v>
       </c>
       <c r="O19">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="P19">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="Q19">
-        <v>125.7808557763493</v>
+        <v>51.43858696727101</v>
       </c>
       <c r="R19">
-        <v>1132.027701987144</v>
+        <v>462.9472827054391</v>
       </c>
       <c r="S19">
-        <v>0.004715597889320535</v>
+        <v>0.003248317748850339</v>
       </c>
       <c r="T19">
-        <v>0.004715597889320535</v>
+        <v>0.003248317748850338</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9924829999999999</v>
+        <v>2.301273333333333</v>
       </c>
       <c r="N20">
-        <v>2.977449</v>
+        <v>6.90382</v>
       </c>
       <c r="O20">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="P20">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="Q20">
-        <v>26.87378904873466</v>
+        <v>121.57769929074</v>
       </c>
       <c r="R20">
-        <v>241.8641014386119</v>
+        <v>1094.19929361666</v>
       </c>
       <c r="S20">
-        <v>0.001007514077830649</v>
+        <v>0.007677563124387124</v>
       </c>
       <c r="T20">
-        <v>0.001007514077830649</v>
+        <v>0.007677563124387123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.400438333333333</v>
+        <v>0.6815196666666666</v>
       </c>
       <c r="N21">
-        <v>7.201314999999999</v>
+        <v>2.044559</v>
       </c>
       <c r="O21">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="P21">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="Q21">
-        <v>64.99745929602443</v>
+        <v>36.005107213713</v>
       </c>
       <c r="R21">
-        <v>584.9771336642199</v>
+        <v>324.045964923417</v>
       </c>
       <c r="S21">
-        <v>0.00243679278516375</v>
+        <v>0.002273702208926915</v>
       </c>
       <c r="T21">
-        <v>0.00243679278516375</v>
+        <v>0.002273702208926915</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.147722666666667</v>
+        <v>3.901443333333333</v>
       </c>
       <c r="N22">
-        <v>9.443168</v>
+        <v>11.70433</v>
       </c>
       <c r="O22">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="P22">
-        <v>0.231457616337308</v>
+        <v>0.3798296292767435</v>
       </c>
       <c r="Q22">
-        <v>818.5071420782543</v>
+        <v>63.05362249668777</v>
       </c>
       <c r="R22">
-        <v>7366.564278704288</v>
+        <v>567.48260247019</v>
       </c>
       <c r="S22">
-        <v>0.03068631174239277</v>
+        <v>0.003981800690124327</v>
       </c>
       <c r="T22">
-        <v>0.03068631174239277</v>
+        <v>0.003981800690124326</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.241022</v>
       </c>
       <c r="O23">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="P23">
-        <v>0.1774817192668824</v>
+        <v>0.2349860865034345</v>
       </c>
       <c r="Q23">
-        <v>627.6313439457781</v>
+        <v>39.00886831439399</v>
       </c>
       <c r="R23">
-        <v>5648.682095512002</v>
+        <v>351.079814829546</v>
       </c>
       <c r="S23">
-        <v>0.02353026637093869</v>
+        <v>0.002463388027918337</v>
       </c>
       <c r="T23">
-        <v>0.02353026637093869</v>
+        <v>0.002463388027918337</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>4.645246</v>
+        <v>0.9736509999999999</v>
       </c>
       <c r="N24">
-        <v>13.935738</v>
+        <v>2.920953</v>
       </c>
       <c r="O24">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="P24">
-        <v>0.3415731563158936</v>
+        <v>0.09479094447309601</v>
       </c>
       <c r="Q24">
-        <v>1207.910426154795</v>
+        <v>15.73577195726433</v>
       </c>
       <c r="R24">
-        <v>10871.19383539316</v>
+        <v>141.621947615379</v>
       </c>
       <c r="S24">
-        <v>0.04528526873908302</v>
+        <v>0.000993705122054891</v>
       </c>
       <c r="T24">
-        <v>0.04528526873908302</v>
+        <v>0.0009937051220548908</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9924829999999999</v>
+        <v>2.301273333333333</v>
       </c>
       <c r="N25">
-        <v>2.977449</v>
+        <v>6.90382</v>
       </c>
       <c r="O25">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="P25">
-        <v>0.07297903079834028</v>
+        <v>0.2240431866833358</v>
       </c>
       <c r="Q25">
-        <v>258.0768733198177</v>
+        <v>37.19229208891777</v>
       </c>
       <c r="R25">
-        <v>2322.691859878359</v>
+        <v>334.73062880026</v>
       </c>
       <c r="S25">
-        <v>0.009675453005927205</v>
+        <v>0.002348672264067582</v>
       </c>
       <c r="T25">
-        <v>0.009675453005927205</v>
+        <v>0.002348672264067582</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.400438333333333</v>
+        <v>0.6815196666666666</v>
       </c>
       <c r="N26">
-        <v>7.201314999999999</v>
+        <v>2.044559</v>
       </c>
       <c r="O26">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="P26">
-        <v>0.1765084772815756</v>
+        <v>0.06635015306339016</v>
       </c>
       <c r="Q26">
-        <v>624.1896532874629</v>
+        <v>11.01445801324856</v>
       </c>
       <c r="R26">
-        <v>5617.706879587165</v>
+        <v>99.130122119237</v>
       </c>
       <c r="S26">
-        <v>0.0234012353741</v>
+        <v>0.000695556809932726</v>
       </c>
       <c r="T26">
-        <v>0.0234012353741</v>
+        <v>0.0006955568099327259</v>
       </c>
     </row>
   </sheetData>
